--- a/data/pca/factorExposure/factorExposure_2018-07-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-07-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.03190356447755702</v>
+        <v>-0.02570255905406332</v>
       </c>
       <c r="C2">
-        <v>0.02748537386097949</v>
+        <v>-0.01731602528469019</v>
       </c>
       <c r="D2">
-        <v>0.02147785061759008</v>
+        <v>-0.01969279402619843</v>
       </c>
       <c r="E2">
-        <v>0.002913468351490813</v>
+        <v>-0.01591838431683681</v>
       </c>
       <c r="F2">
-        <v>-0.1256135702372028</v>
+        <v>0.006416739811849105</v>
       </c>
       <c r="G2">
-        <v>-0.04073787606919841</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.05235196133800907</v>
+      </c>
+      <c r="H2">
+        <v>0.0521251927851584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1114745501693575</v>
+        <v>-0.08307076545965139</v>
       </c>
       <c r="C3">
-        <v>-0.03376315091609327</v>
+        <v>0.01341612868470798</v>
       </c>
       <c r="D3">
-        <v>0.07106211876506929</v>
+        <v>-0.0232428095233881</v>
       </c>
       <c r="E3">
-        <v>0.01146112310685944</v>
+        <v>-0.01471721357024259</v>
       </c>
       <c r="F3">
-        <v>-0.4053461203744357</v>
+        <v>-0.04190754980761598</v>
       </c>
       <c r="G3">
-        <v>-0.1554506740613615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1830947834979263</v>
+      </c>
+      <c r="H3">
+        <v>0.1567234390748399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05355645329044256</v>
+        <v>-0.04836034220126201</v>
       </c>
       <c r="C4">
-        <v>0.02730069104095968</v>
+        <v>-0.0033100848046741</v>
       </c>
       <c r="D4">
-        <v>-0.0164576665039454</v>
+        <v>-0.04144383460043326</v>
       </c>
       <c r="E4">
-        <v>0.05886785839014944</v>
+        <v>0.0226628553337079</v>
       </c>
       <c r="F4">
-        <v>-0.08095680418698729</v>
+        <v>0.04863919238351076</v>
       </c>
       <c r="G4">
-        <v>-0.0402371658570181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04195266754543703</v>
+      </c>
+      <c r="H4">
+        <v>0.05914735647235504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01326883533505594</v>
+        <v>-0.02680379720041737</v>
       </c>
       <c r="C6">
-        <v>0.007723827176467375</v>
+        <v>-0.003565819768409222</v>
       </c>
       <c r="D6">
-        <v>0.0181116206137358</v>
+        <v>-0.05045514478167464</v>
       </c>
       <c r="E6">
-        <v>0.02257726757463063</v>
+        <v>0.009284872860991363</v>
       </c>
       <c r="F6">
-        <v>-0.01332465463808809</v>
+        <v>0.02973781513831299</v>
       </c>
       <c r="G6">
-        <v>-0.001729005522255441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01330319010834155</v>
+      </c>
+      <c r="H6">
+        <v>0.06348014762116626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02431805924878265</v>
+        <v>-0.02266750746142804</v>
       </c>
       <c r="C7">
-        <v>0.001371237107313305</v>
+        <v>-0.002684474507576009</v>
       </c>
       <c r="D7">
-        <v>0.01347465708154592</v>
+        <v>-0.02487220267028272</v>
       </c>
       <c r="E7">
-        <v>0.0344311869612236</v>
+        <v>0.04224335519089547</v>
       </c>
       <c r="F7">
-        <v>-0.05376689604809915</v>
+        <v>0.00197258493457066</v>
       </c>
       <c r="G7">
-        <v>-0.06074292964084282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02392993072340202</v>
+      </c>
+      <c r="H7">
+        <v>0.03979367147946893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.02149995918184865</v>
+        <v>-0.007450501156041719</v>
       </c>
       <c r="C8">
-        <v>0.01647963268866963</v>
+        <v>0.00219335214999296</v>
       </c>
       <c r="D8">
-        <v>0.006801461079058446</v>
+        <v>-0.01142292848368848</v>
       </c>
       <c r="E8">
-        <v>0.05375021088181442</v>
+        <v>0.006847421387887677</v>
       </c>
       <c r="F8">
-        <v>-0.09473782356748361</v>
+        <v>0.01620804904562845</v>
       </c>
       <c r="G8">
-        <v>-0.05745949823257838</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.0473125568449306</v>
+      </c>
+      <c r="H8">
+        <v>0.04145715304716141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04204480436671453</v>
+        <v>-0.03948498055829948</v>
       </c>
       <c r="C9">
-        <v>0.02480871651515607</v>
+        <v>0.0006433765482706586</v>
       </c>
       <c r="D9">
-        <v>-0.004394846044075745</v>
+        <v>-0.03331309070083156</v>
       </c>
       <c r="E9">
-        <v>0.05540501776782916</v>
+        <v>0.0116251701821216</v>
       </c>
       <c r="F9">
-        <v>-0.08041844998306211</v>
+        <v>0.02512883042585937</v>
       </c>
       <c r="G9">
-        <v>-0.05499690780450389</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04927758493167055</v>
+      </c>
+      <c r="H9">
+        <v>0.05471096082792542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02537227840211022</v>
+        <v>-0.09690314766867382</v>
       </c>
       <c r="C10">
-        <v>-0.04113137323182221</v>
+        <v>0.0278508170137199</v>
       </c>
       <c r="D10">
-        <v>-0.0767626006869363</v>
+        <v>0.156588591721077</v>
       </c>
       <c r="E10">
-        <v>-0.1062790567306653</v>
+        <v>-0.01242142973948834</v>
       </c>
       <c r="F10">
-        <v>-0.05826640750701913</v>
+        <v>-0.04661953844531265</v>
       </c>
       <c r="G10">
-        <v>0.04100636117223327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02422101675843847</v>
+      </c>
+      <c r="H10">
+        <v>0.006027520384453067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03714132706828794</v>
+        <v>-0.02257028769628302</v>
       </c>
       <c r="C11">
-        <v>0.01480051646053901</v>
+        <v>0.008772166400198135</v>
       </c>
       <c r="D11">
-        <v>0.01605223557406942</v>
+        <v>-0.03716459668853617</v>
       </c>
       <c r="E11">
-        <v>0.03577375522865731</v>
+        <v>0.0001230378688324935</v>
       </c>
       <c r="F11">
-        <v>-0.0430543980958307</v>
+        <v>0.01029880255671588</v>
       </c>
       <c r="G11">
-        <v>-0.02714550821392726</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02673824109502341</v>
+      </c>
+      <c r="H11">
+        <v>0.04476652717162152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04271080953271681</v>
+        <v>-0.03114301774931776</v>
       </c>
       <c r="C12">
-        <v>0.01420255667420357</v>
+        <v>0.007134830907679789</v>
       </c>
       <c r="D12">
-        <v>0.008917737851241461</v>
+        <v>-0.03840363415755638</v>
       </c>
       <c r="E12">
-        <v>0.04029822166801459</v>
+        <v>0.009416317487519442</v>
       </c>
       <c r="F12">
-        <v>-0.03009320110829991</v>
+        <v>0.01647790421138199</v>
       </c>
       <c r="G12">
-        <v>-0.01636283294919581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01176109988449075</v>
+      </c>
+      <c r="H12">
+        <v>0.02402918575579091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.02054174519797017</v>
+        <v>-0.02593628146222114</v>
       </c>
       <c r="C13">
-        <v>0.02162949196444036</v>
+        <v>-0.01388395890194409</v>
       </c>
       <c r="D13">
-        <v>0.01251063959820109</v>
+        <v>-0.002635359851340722</v>
       </c>
       <c r="E13">
-        <v>0.003733110955053467</v>
+        <v>-0.01311565488459037</v>
       </c>
       <c r="F13">
-        <v>-0.08096327394390544</v>
+        <v>0.009367048053242415</v>
       </c>
       <c r="G13">
-        <v>-0.03678845118962295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.05061927854898357</v>
+      </c>
+      <c r="H13">
+        <v>0.05399586922556834</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01393299683013074</v>
+        <v>-0.01687146543859466</v>
       </c>
       <c r="C14">
-        <v>0.01007680420711961</v>
+        <v>-0.000631139530631807</v>
       </c>
       <c r="D14">
-        <v>-0.003811475993263296</v>
+        <v>-0.00565876813513141</v>
       </c>
       <c r="E14">
-        <v>0.04524359560172655</v>
+        <v>0.01362145095992051</v>
       </c>
       <c r="F14">
-        <v>-0.053125967767682</v>
+        <v>0.01215409122571623</v>
       </c>
       <c r="G14">
-        <v>-0.06802606376317698</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04297964081850442</v>
+      </c>
+      <c r="H14">
+        <v>0.002523615161724003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02810606533407557</v>
+        <v>-0.02347706482039005</v>
       </c>
       <c r="C16">
-        <v>0.01880443077911077</v>
+        <v>0.009191029021139434</v>
       </c>
       <c r="D16">
-        <v>0.01576073110881449</v>
+        <v>-0.0331715458551565</v>
       </c>
       <c r="E16">
-        <v>0.02807649223538477</v>
+        <v>0.003476907574233865</v>
       </c>
       <c r="F16">
-        <v>-0.04956772774670004</v>
+        <v>0.0163568658940416</v>
       </c>
       <c r="G16">
-        <v>-0.0292568911541822</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.0249363131750041</v>
+      </c>
+      <c r="H16">
+        <v>0.03843900184270745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04680662631303627</v>
+        <v>-0.03559527652422114</v>
       </c>
       <c r="C19">
-        <v>0.01742239013692199</v>
+        <v>0.0002875950632766689</v>
       </c>
       <c r="D19">
-        <v>0.02007974138897882</v>
+        <v>-0.01763038235931112</v>
       </c>
       <c r="E19">
-        <v>0.04708036522643506</v>
+        <v>0.003217246056959449</v>
       </c>
       <c r="F19">
-        <v>-0.09793438573779552</v>
+        <v>0.01717830061248289</v>
       </c>
       <c r="G19">
-        <v>-0.04199702022264928</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.05992729188258204</v>
+      </c>
+      <c r="H19">
+        <v>0.06998421538294999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001785350934767838</v>
+        <v>-0.01043435462818284</v>
       </c>
       <c r="C20">
-        <v>0.01443608170469691</v>
+        <v>-0.006332883703835957</v>
       </c>
       <c r="D20">
-        <v>-0.002099052787743602</v>
+        <v>-0.007555125047424003</v>
       </c>
       <c r="E20">
-        <v>0.04019299801485349</v>
+        <v>0.003924434952552156</v>
       </c>
       <c r="F20">
-        <v>-0.07002743944235833</v>
+        <v>0.01016220553852243</v>
       </c>
       <c r="G20">
-        <v>-0.07608496933983153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04972835411325512</v>
+      </c>
+      <c r="H20">
+        <v>0.01451640253825374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.001160745101090174</v>
+        <v>-0.01848562622964627</v>
       </c>
       <c r="C21">
-        <v>-0.007930405816375882</v>
+        <v>-0.006969324410736277</v>
       </c>
       <c r="D21">
-        <v>0.007636158015839</v>
+        <v>-0.00893170932522775</v>
       </c>
       <c r="E21">
-        <v>0.03578396910027457</v>
+        <v>0.01688711445195644</v>
       </c>
       <c r="F21">
-        <v>-0.0561419928922206</v>
+        <v>0.003743042307458208</v>
       </c>
       <c r="G21">
-        <v>-0.03067359662841081</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05134871755421903</v>
+      </c>
+      <c r="H21">
+        <v>0.03291033211832794</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03270702495948232</v>
+        <v>-0.02111599295107894</v>
       </c>
       <c r="C24">
-        <v>0.01965132501052572</v>
+        <v>0.003503115601316257</v>
       </c>
       <c r="D24">
-        <v>0.009143160704739844</v>
+        <v>-0.03382402141988401</v>
       </c>
       <c r="E24">
-        <v>0.01196820498088646</v>
+        <v>0.0004733998106465843</v>
       </c>
       <c r="F24">
-        <v>-0.04298436166240755</v>
+        <v>0.01028931588960273</v>
       </c>
       <c r="G24">
-        <v>-0.02321329227095633</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02083593531336935</v>
+      </c>
+      <c r="H24">
+        <v>0.04128353548227168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03104404483155139</v>
+        <v>-0.03024084965673997</v>
       </c>
       <c r="C25">
-        <v>0.01111405614662061</v>
+        <v>0.00129506182412231</v>
       </c>
       <c r="D25">
-        <v>0.01395086630764611</v>
+        <v>-0.03321832232045153</v>
       </c>
       <c r="E25">
-        <v>0.03901146764446659</v>
+        <v>0.004890125351061406</v>
       </c>
       <c r="F25">
-        <v>-0.04237578236383268</v>
+        <v>0.01597341636568691</v>
       </c>
       <c r="G25">
-        <v>-0.008726201357518486</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02481796899329932</v>
+      </c>
+      <c r="H25">
+        <v>0.04452454268995618</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02103998856027517</v>
+        <v>-0.02127574059532568</v>
       </c>
       <c r="C26">
-        <v>0.00444811986031559</v>
+        <v>-0.01662326045066129</v>
       </c>
       <c r="D26">
-        <v>0.03021931379834162</v>
+        <v>-0.003545703152222716</v>
       </c>
       <c r="E26">
-        <v>0.02587539588020842</v>
+        <v>-0.001658140090115794</v>
       </c>
       <c r="F26">
-        <v>-0.06789219761262594</v>
+        <v>0.0007071590760858988</v>
       </c>
       <c r="G26">
-        <v>-0.03508293618643558</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.0323042241014179</v>
+      </c>
+      <c r="H26">
+        <v>0.01987668913227634</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.06763396277435203</v>
+        <v>-0.02712058279499796</v>
       </c>
       <c r="C27">
-        <v>0.03137077733968808</v>
+        <v>0.01057908442156634</v>
       </c>
       <c r="D27">
-        <v>-0.03221777693973864</v>
+        <v>-0.01457891091762794</v>
       </c>
       <c r="E27">
-        <v>0.04057249114570062</v>
+        <v>0.00829682665811172</v>
       </c>
       <c r="F27">
-        <v>-0.05010567914527055</v>
+        <v>0.01825912096989072</v>
       </c>
       <c r="G27">
-        <v>-0.03937908724310774</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01874665607847553</v>
+      </c>
+      <c r="H27">
+        <v>0.005367089723065722</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04393616101832164</v>
+        <v>-0.1429565676569391</v>
       </c>
       <c r="C28">
-        <v>-0.04642873254256084</v>
+        <v>0.02758398460069071</v>
       </c>
       <c r="D28">
-        <v>-0.1121153116457038</v>
+        <v>0.2274811890302977</v>
       </c>
       <c r="E28">
-        <v>-0.1482178346007293</v>
+        <v>-0.01118179034835786</v>
       </c>
       <c r="F28">
-        <v>-0.05790036386405726</v>
+        <v>-0.05409874987122028</v>
       </c>
       <c r="G28">
-        <v>0.02727750044266922</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01444207083231806</v>
+      </c>
+      <c r="H28">
+        <v>-0.01626933271442719</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02175034002664425</v>
+        <v>-0.0215515546449133</v>
       </c>
       <c r="C29">
-        <v>0.01150394034166831</v>
+        <v>0.001552513160858692</v>
       </c>
       <c r="D29">
-        <v>-0.006470106042446969</v>
+        <v>-0.008606487758315674</v>
       </c>
       <c r="E29">
-        <v>0.05865992183024644</v>
+        <v>0.0137418880097499</v>
       </c>
       <c r="F29">
-        <v>-0.04230319898264213</v>
+        <v>0.01540969673350667</v>
       </c>
       <c r="G29">
-        <v>-0.05853295863881949</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03889607711246888</v>
+      </c>
+      <c r="H29">
+        <v>-0.001459659240251613</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09489705308197703</v>
+        <v>-0.05496932475137348</v>
       </c>
       <c r="C30">
-        <v>0.06202739000408285</v>
+        <v>-0.003285354919608389</v>
       </c>
       <c r="D30">
-        <v>0.01272175495575449</v>
+        <v>-0.07103002893579402</v>
       </c>
       <c r="E30">
-        <v>0.0730022534068107</v>
+        <v>-0.02797368461964068</v>
       </c>
       <c r="F30">
-        <v>-0.08407437950111506</v>
+        <v>0.05294149229000492</v>
       </c>
       <c r="G30">
-        <v>-0.05080680960346143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.05449080462903245</v>
+      </c>
+      <c r="H30">
+        <v>0.07021318313938862</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06349245017816812</v>
+        <v>-0.05588142542764418</v>
       </c>
       <c r="C31">
-        <v>0.02364381464654252</v>
+        <v>0.01529222485247785</v>
       </c>
       <c r="D31">
-        <v>0.02871820034653632</v>
+        <v>-0.02396148896987478</v>
       </c>
       <c r="E31">
-        <v>0.01098478792854119</v>
+        <v>-0.00437030925070087</v>
       </c>
       <c r="F31">
-        <v>-0.04178653999000159</v>
+        <v>0.01283434958928142</v>
       </c>
       <c r="G31">
-        <v>-0.06039494606354727</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01885377598092438</v>
+      </c>
+      <c r="H31">
+        <v>0.009302977887223044</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02228923059018459</v>
+        <v>-0.01082068653282428</v>
       </c>
       <c r="C32">
-        <v>0.02108175653665874</v>
+        <v>0.01340799009184235</v>
       </c>
       <c r="D32">
-        <v>0.007203408901607858</v>
+        <v>-0.001484786156071626</v>
       </c>
       <c r="E32">
-        <v>0.08699729997661562</v>
+        <v>0.03113716213989261</v>
       </c>
       <c r="F32">
-        <v>-0.0605085505126163</v>
+        <v>0.0335399301074456</v>
       </c>
       <c r="G32">
-        <v>-0.04816896270481946</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.03507117122534097</v>
+      </c>
+      <c r="H32">
+        <v>0.0610086535937298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05134639932830937</v>
+        <v>-0.04055522544452836</v>
       </c>
       <c r="C33">
-        <v>0.01117863591427073</v>
+        <v>0.001735213306074402</v>
       </c>
       <c r="D33">
-        <v>0.04720829382038815</v>
+        <v>-0.0314459437037926</v>
       </c>
       <c r="E33">
-        <v>0.04689547515274339</v>
+        <v>-0.02364854992762909</v>
       </c>
       <c r="F33">
-        <v>-0.090421345245784</v>
+        <v>0.002335727005588692</v>
       </c>
       <c r="G33">
-        <v>-0.05669480816191066</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.05028910124911797</v>
+      </c>
+      <c r="H33">
+        <v>0.04407885955707447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03522257417117141</v>
+        <v>-0.02809680743185468</v>
       </c>
       <c r="C34">
-        <v>0.02135410052984337</v>
+        <v>0.01776288374096516</v>
       </c>
       <c r="D34">
-        <v>0.01048080386397876</v>
+        <v>-0.03459095426189897</v>
       </c>
       <c r="E34">
-        <v>0.03663402113821952</v>
+        <v>0.009595189238524562</v>
       </c>
       <c r="F34">
-        <v>-0.05590728536717251</v>
+        <v>0.01739249237596585</v>
       </c>
       <c r="G34">
-        <v>-0.01517284181362102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02255180432613641</v>
+      </c>
+      <c r="H34">
+        <v>0.03852822981527394</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01662966417860497</v>
+        <v>-0.02176644623623206</v>
       </c>
       <c r="C36">
-        <v>0.005674444424904687</v>
+        <v>-0.003580483400942581</v>
       </c>
       <c r="D36">
-        <v>-0.001909395590383409</v>
+        <v>0.0009397285203681798</v>
       </c>
       <c r="E36">
-        <v>0.03422154524867255</v>
+        <v>0.006503934885121924</v>
       </c>
       <c r="F36">
-        <v>-0.03204265775886365</v>
+        <v>0.004035717253240823</v>
       </c>
       <c r="G36">
-        <v>-0.03872591608515897</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02110093265704949</v>
+      </c>
+      <c r="H36">
+        <v>0.008071282121089448</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.002308532423723581</v>
+        <v>-0.02446379068346107</v>
       </c>
       <c r="C38">
-        <v>-0.01301669623476711</v>
+        <v>0.01664577955926062</v>
       </c>
       <c r="D38">
-        <v>0.01199376643059659</v>
+        <v>-0.002106244924873279</v>
       </c>
       <c r="E38">
-        <v>-0.01335144283053902</v>
+        <v>-0.0009443934795419587</v>
       </c>
       <c r="F38">
-        <v>-0.04572976706747096</v>
+        <v>0.005484063938549264</v>
       </c>
       <c r="G38">
-        <v>0.002244177865244631</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02057910109570025</v>
+      </c>
+      <c r="H38">
+        <v>0.04197830808759662</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04341192799289268</v>
+        <v>-0.02060403479602401</v>
       </c>
       <c r="C39">
-        <v>0.03767024796720161</v>
+        <v>0.001731590480585213</v>
       </c>
       <c r="D39">
-        <v>0.02275870483085779</v>
+        <v>-0.07534014467723682</v>
       </c>
       <c r="E39">
-        <v>0.03950890252794208</v>
+        <v>-0.000945492519451809</v>
       </c>
       <c r="F39">
-        <v>-0.06560511687465309</v>
+        <v>0.02230189444576346</v>
       </c>
       <c r="G39">
-        <v>-0.02491549830334443</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04375135440388344</v>
+      </c>
+      <c r="H39">
+        <v>0.07241903451459272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03994851397060105</v>
+        <v>-0.03530453498698031</v>
       </c>
       <c r="C40">
-        <v>0.06157695975919999</v>
+        <v>0.002188174733297761</v>
       </c>
       <c r="D40">
-        <v>0.03576403239475118</v>
+        <v>-0.01878586021180931</v>
       </c>
       <c r="E40">
-        <v>-0.004991748182560038</v>
+        <v>-0.02347021869404485</v>
       </c>
       <c r="F40">
-        <v>-0.07942587024039635</v>
+        <v>0.02682348094224021</v>
       </c>
       <c r="G40">
-        <v>-0.0527816954075918</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02344350293626474</v>
+      </c>
+      <c r="H40">
+        <v>0.0711289580153863</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0003566129997144737</v>
+        <v>-0.01161206072122664</v>
       </c>
       <c r="C41">
-        <v>-0.001717874967121778</v>
+        <v>-0.000312955454852527</v>
       </c>
       <c r="D41">
-        <v>0.006598941039093841</v>
+        <v>0.0135214445780812</v>
       </c>
       <c r="E41">
-        <v>0.01160073965306671</v>
+        <v>-0.002001234163734733</v>
       </c>
       <c r="F41">
-        <v>-0.003326739774868756</v>
+        <v>-0.00179016644853891</v>
       </c>
       <c r="G41">
-        <v>-0.04722884839845325</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.004904786459224222</v>
+      </c>
+      <c r="H41">
+        <v>-0.005565259563759346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3574885100881741</v>
+        <v>-0.2039304829632287</v>
       </c>
       <c r="C42">
-        <v>-0.6796444820906511</v>
+        <v>-0.0731095770413296</v>
       </c>
       <c r="D42">
-        <v>0.5410250903241591</v>
+        <v>-0.3637411546316492</v>
       </c>
       <c r="E42">
-        <v>-0.1599307977072348</v>
+        <v>-0.229750679196876</v>
       </c>
       <c r="F42">
-        <v>0.2269145814136335</v>
+        <v>-0.8411790666312904</v>
       </c>
       <c r="G42">
-        <v>-0.05853975204880675</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.2018132558146936</v>
+      </c>
+      <c r="H42">
+        <v>-0.03906463149197488</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.007176457593862569</v>
+        <v>-0.01116549703187216</v>
       </c>
       <c r="C43">
-        <v>-0.007088409084009417</v>
+        <v>-0.001859626071795803</v>
       </c>
       <c r="D43">
-        <v>0.0165380264541895</v>
+        <v>0.01526498863889375</v>
       </c>
       <c r="E43">
-        <v>0.01441751006862512</v>
+        <v>-0.006760662588689813</v>
       </c>
       <c r="F43">
-        <v>-0.0200412277827906</v>
+        <v>-0.00913263730069383</v>
       </c>
       <c r="G43">
-        <v>-0.04337188534453524</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.008781639418546885</v>
+      </c>
+      <c r="H43">
+        <v>0.001199997553469796</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01803183697484336</v>
+        <v>-0.01512783305592186</v>
       </c>
       <c r="C44">
-        <v>-0.002562814232582961</v>
+        <v>0.001498662864363604</v>
       </c>
       <c r="D44">
-        <v>0.0195006045512484</v>
+        <v>-0.01816141221139332</v>
       </c>
       <c r="E44">
-        <v>0.03214348746679391</v>
+        <v>0.005004154667715983</v>
       </c>
       <c r="F44">
-        <v>-0.1115093263519324</v>
+        <v>-0.005411333376013952</v>
       </c>
       <c r="G44">
-        <v>-0.07473699424123392</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04528647505651425</v>
+      </c>
+      <c r="H44">
+        <v>0.05875586479304363</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02046042521484143</v>
+        <v>-0.01919582101153812</v>
       </c>
       <c r="C46">
-        <v>0.01158800171012707</v>
+        <v>-0.003408211913775374</v>
       </c>
       <c r="D46">
-        <v>0.02313474132607832</v>
+        <v>-0.01380673250602181</v>
       </c>
       <c r="E46">
-        <v>0.05604941415593641</v>
+        <v>0.001401533432622679</v>
       </c>
       <c r="F46">
-        <v>-0.05771239432103435</v>
+        <v>0.01490090133221121</v>
       </c>
       <c r="G46">
-        <v>-0.06324278124399506</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04975591988368441</v>
+      </c>
+      <c r="H46">
+        <v>0.01314341251137901</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09889862478353824</v>
+        <v>-0.07721686837820066</v>
       </c>
       <c r="C47">
-        <v>0.02917485481265845</v>
+        <v>0.03081257725890714</v>
       </c>
       <c r="D47">
-        <v>0.009595653540066125</v>
+        <v>-0.04099378675995072</v>
       </c>
       <c r="E47">
-        <v>0.02568637401923908</v>
+        <v>0.001033829405049515</v>
       </c>
       <c r="F47">
-        <v>-0.01658445234058081</v>
+        <v>0.02261539916410503</v>
       </c>
       <c r="G47">
-        <v>-0.07653332836869149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.00746582378070333</v>
+      </c>
+      <c r="H47">
+        <v>-0.02002483931687913</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01879429562861512</v>
+        <v>-0.02328027045502552</v>
       </c>
       <c r="C48">
-        <v>0.007193791716093476</v>
+        <v>0.007098349646169349</v>
       </c>
       <c r="D48">
-        <v>0.01326711992092651</v>
+        <v>-0.006059028261405205</v>
       </c>
       <c r="E48">
-        <v>0.0333483547927097</v>
+        <v>0.001548118933705998</v>
       </c>
       <c r="F48">
-        <v>-0.05047615726545602</v>
+        <v>0.00843985143669849</v>
       </c>
       <c r="G48">
-        <v>-0.02335267976912505</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02743152796184616</v>
+      </c>
+      <c r="H48">
+        <v>0.01789385393881842</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09235268984850453</v>
+        <v>-0.07505360056126396</v>
       </c>
       <c r="C50">
-        <v>0.02495413881224495</v>
+        <v>0.02790610465994541</v>
       </c>
       <c r="D50">
-        <v>0.0205880677421314</v>
+        <v>-0.04157794001965034</v>
       </c>
       <c r="E50">
-        <v>0.03961933656649669</v>
+        <v>0.01993894131856028</v>
       </c>
       <c r="F50">
-        <v>-0.04774194489797991</v>
+        <v>0.01708878664177367</v>
       </c>
       <c r="G50">
-        <v>-0.03727855043704095</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01645542124162069</v>
+      </c>
+      <c r="H50">
+        <v>-0.0006884966440462922</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01790063612296756</v>
+        <v>-0.01894439626606533</v>
       </c>
       <c r="C51">
-        <v>-0.008551979598300979</v>
+        <v>-0.001330852209451919</v>
       </c>
       <c r="D51">
-        <v>0.009347495093287517</v>
+        <v>0.008934400937671299</v>
       </c>
       <c r="E51">
-        <v>0.0008315629709530409</v>
+        <v>-0.0007697835363973183</v>
       </c>
       <c r="F51">
-        <v>-0.1190889017530819</v>
+        <v>-0.01322159227198597</v>
       </c>
       <c r="G51">
-        <v>-0.04101134253377606</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05062669339638119</v>
+      </c>
+      <c r="H51">
+        <v>0.05266853994345199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1070517260018365</v>
+        <v>-0.09436453372705687</v>
       </c>
       <c r="C53">
-        <v>0.04752708862013894</v>
+        <v>0.03784159641919651</v>
       </c>
       <c r="D53">
-        <v>0.01387528316290684</v>
+        <v>-0.07689634545001119</v>
       </c>
       <c r="E53">
-        <v>0.04104774321911965</v>
+        <v>0.008802308008726063</v>
       </c>
       <c r="F53">
-        <v>0.05226857671259631</v>
+        <v>0.05085642196430344</v>
       </c>
       <c r="G53">
-        <v>-0.01499778847283548</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.04149409806022017</v>
+      </c>
+      <c r="H53">
+        <v>-0.04395521738031716</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01490647367014154</v>
+        <v>-0.02563092077363166</v>
       </c>
       <c r="C54">
-        <v>0.009880009624043021</v>
+        <v>0.01147129833013479</v>
       </c>
       <c r="D54">
-        <v>-0.007013344091527274</v>
+        <v>0.01176115971380487</v>
       </c>
       <c r="E54">
-        <v>0.03402246091257703</v>
+        <v>0.007169334279831271</v>
       </c>
       <c r="F54">
-        <v>-0.05769809633055083</v>
+        <v>0.005028159141091572</v>
       </c>
       <c r="G54">
-        <v>-0.0630830541002725</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03939858776198393</v>
+      </c>
+      <c r="H54">
+        <v>-0.004118454868474975</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1022839076181065</v>
+        <v>-0.07799364904123193</v>
       </c>
       <c r="C55">
-        <v>0.02655450444249308</v>
+        <v>0.03253083323593379</v>
       </c>
       <c r="D55">
-        <v>-0.007664637344441453</v>
+        <v>-0.0746685812156883</v>
       </c>
       <c r="E55">
-        <v>0.06083912849744781</v>
+        <v>0.01576584189903125</v>
       </c>
       <c r="F55">
-        <v>0.04114124428241991</v>
+        <v>0.04015771483940531</v>
       </c>
       <c r="G55">
-        <v>-0.07446361623926201</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01860345402087029</v>
+      </c>
+      <c r="H55">
+        <v>-0.05180938188771778</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.14709043134538</v>
+        <v>-0.1291264703524306</v>
       </c>
       <c r="C56">
-        <v>0.08963277922120019</v>
+        <v>0.05773233026362401</v>
       </c>
       <c r="D56">
-        <v>-0.0244664309494465</v>
+        <v>-0.09648585518782653</v>
       </c>
       <c r="E56">
-        <v>0.05204154909390583</v>
+        <v>0.01326972810210419</v>
       </c>
       <c r="F56">
-        <v>0.1114769313373163</v>
+        <v>0.08219350593598032</v>
       </c>
       <c r="G56">
-        <v>0.03531220763093697</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.07544111611305358</v>
+      </c>
+      <c r="H56">
+        <v>-0.04906013581117399</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04862438931818512</v>
+        <v>-0.04154201375727989</v>
       </c>
       <c r="C57">
-        <v>0.000848215978527989</v>
+        <v>-0.009327602940890054</v>
       </c>
       <c r="D57">
-        <v>0.01465652167420314</v>
+        <v>-0.02496142781359141</v>
       </c>
       <c r="E57">
-        <v>-0.007574174383315568</v>
+        <v>-0.004230023564772391</v>
       </c>
       <c r="F57">
-        <v>-0.08611876372862703</v>
+        <v>0.01321866268302959</v>
       </c>
       <c r="G57">
-        <v>-0.06739128951390916</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.05761472806929253</v>
+      </c>
+      <c r="H57">
+        <v>0.04330456895812258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2127674560820098</v>
+        <v>-0.1528055490431239</v>
       </c>
       <c r="C58">
-        <v>0.06068939221579717</v>
+        <v>0.04545566794944842</v>
       </c>
       <c r="D58">
-        <v>0.1326917373433367</v>
+        <v>-0.1562412301009964</v>
       </c>
       <c r="E58">
-        <v>0.1582808498508553</v>
+        <v>-0.1665725889862288</v>
       </c>
       <c r="F58">
-        <v>-0.3134223024260676</v>
+        <v>-0.03773860297718363</v>
       </c>
       <c r="G58">
-        <v>-0.1254294532233688</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.8264480020101816</v>
+      </c>
+      <c r="H58">
+        <v>-0.3747457967361481</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.0469953140745547</v>
+        <v>-0.1506412968200094</v>
       </c>
       <c r="C59">
-        <v>-0.001740219724425571</v>
+        <v>0.03614302486517049</v>
       </c>
       <c r="D59">
-        <v>-0.09410624066265072</v>
+        <v>0.2278746019945234</v>
       </c>
       <c r="E59">
-        <v>-0.1367615046810334</v>
+        <v>-0.02921532720522078</v>
       </c>
       <c r="F59">
-        <v>-0.07141493898967909</v>
+        <v>-0.03205175375075713</v>
       </c>
       <c r="G59">
-        <v>0.03968464117705284</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.008502465952433797</v>
+      </c>
+      <c r="H59">
+        <v>0.01552845960042252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1696568486563761</v>
+        <v>-0.17440979357674</v>
       </c>
       <c r="C60">
-        <v>0.04214129009086608</v>
+        <v>0.03780538448473465</v>
       </c>
       <c r="D60">
-        <v>0.05828986515422716</v>
+        <v>-0.01633564295755826</v>
       </c>
       <c r="E60">
-        <v>-0.03351829675467563</v>
+        <v>-0.04741872698198179</v>
       </c>
       <c r="F60">
-        <v>-0.1699896177847173</v>
+        <v>0.04067039695383188</v>
       </c>
       <c r="G60">
-        <v>0.3051151984469566</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.04202954316089907</v>
+      </c>
+      <c r="H60">
+        <v>0.3878034757985293</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02208520496401892</v>
+        <v>-0.02155336489583847</v>
       </c>
       <c r="C61">
-        <v>0.006138771858377816</v>
+        <v>0.006542774689032269</v>
       </c>
       <c r="D61">
-        <v>0.01197610041632145</v>
+        <v>-0.04144093047714431</v>
       </c>
       <c r="E61">
-        <v>0.02146982667504638</v>
+        <v>0.005488558419843119</v>
       </c>
       <c r="F61">
-        <v>-0.0341124461855065</v>
+        <v>0.01748004412572931</v>
       </c>
       <c r="G61">
-        <v>-0.02044059864831991</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02529947507933793</v>
+      </c>
+      <c r="H61">
+        <v>0.05025532161252659</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01708203188438676</v>
+        <v>-0.013123455402921</v>
       </c>
       <c r="C63">
-        <v>0.01203480446447091</v>
+        <v>-0.001885207375746686</v>
       </c>
       <c r="D63">
-        <v>0.01401236130391707</v>
+        <v>-0.01539347892600208</v>
       </c>
       <c r="E63">
-        <v>0.04655267182214072</v>
+        <v>0.005416342042129558</v>
       </c>
       <c r="F63">
-        <v>-0.01404015939254485</v>
+        <v>0.01538146287035922</v>
       </c>
       <c r="G63">
-        <v>-0.04215182069764325</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01666032721935912</v>
+      </c>
+      <c r="H63">
+        <v>0.001317848354794247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03569028179804877</v>
+        <v>-0.0408802507039847</v>
       </c>
       <c r="C64">
-        <v>0.00233552880877819</v>
+        <v>0.01018690681155449</v>
       </c>
       <c r="D64">
-        <v>-0.01628875860704364</v>
+        <v>-0.03717189473004359</v>
       </c>
       <c r="E64">
-        <v>0.05562524622101981</v>
+        <v>0.01178268875657035</v>
       </c>
       <c r="F64">
-        <v>-0.01760180657823602</v>
+        <v>0.006034270297459118</v>
       </c>
       <c r="G64">
-        <v>-0.06048524207496012</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.008124424180920659</v>
+      </c>
+      <c r="H64">
+        <v>0.0365326582307712</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01452285643617444</v>
+        <v>-0.03034468479356826</v>
       </c>
       <c r="C65">
-        <v>0.009234882243252428</v>
+        <v>-0.004123323068072303</v>
       </c>
       <c r="D65">
-        <v>0.01966004645204285</v>
+        <v>-0.05978928958569135</v>
       </c>
       <c r="E65">
-        <v>0.0229670125797947</v>
+        <v>0.01214031688545408</v>
       </c>
       <c r="F65">
-        <v>-0.007956776400460386</v>
+        <v>0.03222806858474809</v>
       </c>
       <c r="G65">
-        <v>0.002505514526867229</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.0009959560778019713</v>
+      </c>
+      <c r="H65">
+        <v>0.0683600843616803</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04661425077784218</v>
+        <v>-0.02750903819195027</v>
       </c>
       <c r="C66">
-        <v>0.03864046763776779</v>
+        <v>0.006699975860981539</v>
       </c>
       <c r="D66">
-        <v>0.02316899831906901</v>
+        <v>-0.08764163490161259</v>
       </c>
       <c r="E66">
-        <v>0.03575864551111919</v>
+        <v>-0.001916071080210486</v>
       </c>
       <c r="F66">
-        <v>-0.06057922417121724</v>
+        <v>0.03935339956246639</v>
       </c>
       <c r="G66">
-        <v>-0.01671751848360684</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03554759487366264</v>
+      </c>
+      <c r="H66">
+        <v>0.07566164765865828</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01589801785380031</v>
+        <v>-0.04457279593469448</v>
       </c>
       <c r="C67">
-        <v>-0.009203280986595777</v>
+        <v>0.01987567689285185</v>
       </c>
       <c r="D67">
-        <v>0.00761421149347726</v>
+        <v>0.00486368325626556</v>
       </c>
       <c r="E67">
-        <v>-0.03643931701399614</v>
+        <v>-0.004196649726044335</v>
       </c>
       <c r="F67">
-        <v>-0.03362150481057963</v>
+        <v>0.01066928191072863</v>
       </c>
       <c r="G67">
-        <v>0.01213529211989898</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.003482920338742255</v>
+      </c>
+      <c r="H67">
+        <v>0.04215404343979132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06227961985510055</v>
+        <v>-0.1520786381176326</v>
       </c>
       <c r="C68">
-        <v>-0.01750567099853611</v>
+        <v>0.01633233320522625</v>
       </c>
       <c r="D68">
-        <v>-0.1264135853225578</v>
+        <v>0.2225942909427039</v>
       </c>
       <c r="E68">
-        <v>-0.1403467981382673</v>
+        <v>-0.02259056197161005</v>
       </c>
       <c r="F68">
-        <v>-0.05509062449361628</v>
+        <v>-0.05171307791327125</v>
       </c>
       <c r="G68">
-        <v>0.08241680654889072</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02029398642797055</v>
+      </c>
+      <c r="H68">
+        <v>-0.03790399771926614</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07256132482936579</v>
+        <v>-0.05962476832867578</v>
       </c>
       <c r="C69">
-        <v>0.03263485790142431</v>
+        <v>0.02904469021456726</v>
       </c>
       <c r="D69">
-        <v>0.006982645464626102</v>
+        <v>-0.03640523865320232</v>
       </c>
       <c r="E69">
-        <v>0.004127124984953905</v>
+        <v>-0.001139189568359023</v>
       </c>
       <c r="F69">
-        <v>-0.01458843604045896</v>
+        <v>0.03010986902374078</v>
       </c>
       <c r="G69">
-        <v>-0.08145460410791928</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01332934543939414</v>
+      </c>
+      <c r="H69">
+        <v>0.002137917208367715</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07201495046065412</v>
+        <v>-0.1449261113683439</v>
       </c>
       <c r="C71">
-        <v>-0.03252771106318058</v>
+        <v>0.02422755943513965</v>
       </c>
       <c r="D71">
-        <v>-0.1101756912449019</v>
+        <v>0.2019372184720256</v>
       </c>
       <c r="E71">
-        <v>-0.198032365849996</v>
+        <v>-0.02879052432129956</v>
       </c>
       <c r="F71">
-        <v>-0.08080042986057112</v>
+        <v>-0.06166107539818277</v>
       </c>
       <c r="G71">
-        <v>0.04138196492661084</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01919913384219684</v>
+      </c>
+      <c r="H71">
+        <v>-0.02237940064502863</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1152287357780436</v>
+        <v>-0.08598450266794881</v>
       </c>
       <c r="C72">
-        <v>0.0888798016576821</v>
+        <v>0.04130146737326183</v>
       </c>
       <c r="D72">
-        <v>-0.006017413983830788</v>
+        <v>-0.07796442699801646</v>
       </c>
       <c r="E72">
-        <v>0.02719706857110108</v>
+        <v>-0.005812494540060648</v>
       </c>
       <c r="F72">
-        <v>-0.1067341798564737</v>
+        <v>0.08026136740657953</v>
       </c>
       <c r="G72">
-        <v>0.06124554533392228</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.05029228574178498</v>
+      </c>
+      <c r="H72">
+        <v>0.1827532438294883</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2513280891204421</v>
+        <v>-0.2384215167987092</v>
       </c>
       <c r="C73">
-        <v>0.04727324259234197</v>
+        <v>0.04842744846757221</v>
       </c>
       <c r="D73">
-        <v>0.0597495551997094</v>
+        <v>-0.05385253544696413</v>
       </c>
       <c r="E73">
-        <v>-0.1122803291597894</v>
+        <v>-0.07882967410643003</v>
       </c>
       <c r="F73">
-        <v>-0.2935942079328155</v>
+        <v>0.03749963494798189</v>
       </c>
       <c r="G73">
-        <v>0.4024320568855006</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.06300033531079695</v>
+      </c>
+      <c r="H73">
+        <v>0.5049829571755202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1407838530913422</v>
+        <v>-0.1215459153094132</v>
       </c>
       <c r="C74">
-        <v>0.04230207305874158</v>
+        <v>0.05402812819154653</v>
       </c>
       <c r="D74">
-        <v>-0.01746383991028902</v>
+        <v>-0.09722114879542126</v>
       </c>
       <c r="E74">
-        <v>0.02865798071005193</v>
+        <v>0.009548835694226758</v>
       </c>
       <c r="F74">
-        <v>0.07187119725199177</v>
+        <v>0.06147703940412089</v>
       </c>
       <c r="G74">
-        <v>0.03209085225413328</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05858677740772786</v>
+      </c>
+      <c r="H74">
+        <v>-0.0318289802430551</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2342241167355112</v>
+        <v>-0.2327461190872084</v>
       </c>
       <c r="C75">
-        <v>0.1504628765458844</v>
+        <v>0.1049939527681353</v>
       </c>
       <c r="D75">
-        <v>-0.02676998291675826</v>
+        <v>-0.1517133982333695</v>
       </c>
       <c r="E75">
-        <v>0.05746853263159821</v>
+        <v>-0.001555221132044362</v>
       </c>
       <c r="F75">
-        <v>0.1339489253613621</v>
+        <v>0.1482593963729207</v>
       </c>
       <c r="G75">
-        <v>-0.00174052330157553</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1274737326166254</v>
+      </c>
+      <c r="H75">
+        <v>-0.1135332192458214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2839173148832305</v>
+        <v>-0.2046970246226297</v>
       </c>
       <c r="C76">
-        <v>0.1412127057485884</v>
+        <v>0.09792705032929672</v>
       </c>
       <c r="D76">
-        <v>-0.1031255530163613</v>
+        <v>-0.1461918590749653</v>
       </c>
       <c r="E76">
-        <v>0.07286490462884658</v>
+        <v>0.04838628289568541</v>
       </c>
       <c r="F76">
-        <v>0.1849996270647104</v>
+        <v>0.1458036884435955</v>
       </c>
       <c r="G76">
-        <v>-0.00749628321650145</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1233003464108705</v>
+      </c>
+      <c r="H76">
+        <v>-0.1326183867279243</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1397184934994764</v>
+        <v>-0.07231045563280274</v>
       </c>
       <c r="C77">
-        <v>-0.03066004886569996</v>
+        <v>0.01019962286685258</v>
       </c>
       <c r="D77">
-        <v>0.07772946394361385</v>
+        <v>-0.06781924652034743</v>
       </c>
       <c r="E77">
-        <v>0.07439284658609138</v>
+        <v>-0.01597582251746426</v>
       </c>
       <c r="F77">
-        <v>-0.1816704808195985</v>
+        <v>-0.03180079165008031</v>
       </c>
       <c r="G77">
-        <v>-0.1538182305290203</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.09349540754297977</v>
+      </c>
+      <c r="H77">
+        <v>-0.003984882796917118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.0614999368676382</v>
+        <v>-0.0386562912427825</v>
       </c>
       <c r="C78">
-        <v>0.02277328757694448</v>
+        <v>0.01105335357922014</v>
       </c>
       <c r="D78">
-        <v>0.02864866398163562</v>
+        <v>-0.06167504541436313</v>
       </c>
       <c r="E78">
-        <v>0.09808789737626822</v>
+        <v>0.008515967151865153</v>
       </c>
       <c r="F78">
-        <v>-0.0530425140259469</v>
+        <v>0.02312261329177472</v>
       </c>
       <c r="G78">
-        <v>-0.0393773231716753</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.04681545690647308</v>
+      </c>
+      <c r="H78">
+        <v>0.06516045277669293</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1231592367183033</v>
+        <v>-0.1415179552086172</v>
       </c>
       <c r="C80">
-        <v>-0.571545309505921</v>
+        <v>0.03927078876552278</v>
       </c>
       <c r="D80">
-        <v>-0.6028763098155273</v>
+        <v>-0.03428005451213448</v>
       </c>
       <c r="E80">
-        <v>0.5039052042102199</v>
+        <v>0.937685004413554</v>
       </c>
       <c r="F80">
-        <v>-0.03749001066349622</v>
+        <v>-0.2478711976112062</v>
       </c>
       <c r="G80">
-        <v>0.09833981747449197</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1210600489492457</v>
+      </c>
+      <c r="H80">
+        <v>0.0117971851484064</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1744035825266275</v>
+        <v>-0.1514556163821814</v>
       </c>
       <c r="C81">
-        <v>0.1030420734789571</v>
+        <v>0.06762566008141284</v>
       </c>
       <c r="D81">
-        <v>-0.04524621679069835</v>
+        <v>-0.09395809268609147</v>
       </c>
       <c r="E81">
-        <v>0.04034197182211562</v>
+        <v>0.01767894553610817</v>
       </c>
       <c r="F81">
-        <v>0.1296741194238768</v>
+        <v>0.09125760053944519</v>
       </c>
       <c r="G81">
-        <v>0.01739907592782721</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.07837256624017128</v>
+      </c>
+      <c r="H81">
+        <v>-0.08329055428621204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.04972264752175346</v>
+        <v>-0.03398502210337932</v>
       </c>
       <c r="C83">
-        <v>-0.002199333351868162</v>
+        <v>0.006279750157682551</v>
       </c>
       <c r="D83">
-        <v>0.03690038246153977</v>
+        <v>-0.01979042517053609</v>
       </c>
       <c r="E83">
-        <v>0.01463706595069527</v>
+        <v>-0.006010201614400049</v>
       </c>
       <c r="F83">
-        <v>-0.0599034106392319</v>
+        <v>0.002610668166660391</v>
       </c>
       <c r="G83">
-        <v>-0.03294489862727649</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04293436845187699</v>
+      </c>
+      <c r="H83">
+        <v>0.04478322690494296</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2536061823872338</v>
+        <v>-0.2182796114649621</v>
       </c>
       <c r="C85">
-        <v>0.1324957874376152</v>
+        <v>0.08746396974402947</v>
       </c>
       <c r="D85">
-        <v>-0.05003778875031803</v>
+        <v>-0.1540332295389941</v>
       </c>
       <c r="E85">
-        <v>0.06336776767788578</v>
+        <v>0.005139667026628656</v>
       </c>
       <c r="F85">
-        <v>0.1390636138310053</v>
+        <v>0.1347626319980733</v>
       </c>
       <c r="G85">
-        <v>-0.0519130760393413</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1383829482204474</v>
+      </c>
+      <c r="H85">
+        <v>-0.09082473091417974</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.004718274650946865</v>
+        <v>-0.02181777005042142</v>
       </c>
       <c r="C86">
-        <v>-0.004393510576466592</v>
+        <v>-0.0001898163448243181</v>
       </c>
       <c r="D86">
-        <v>0.01449346722842008</v>
+        <v>-0.00471166605290822</v>
       </c>
       <c r="E86">
-        <v>0.05537584722161347</v>
+        <v>-0.009569929008949363</v>
       </c>
       <c r="F86">
-        <v>-0.05824515980461481</v>
+        <v>-0.01746117004958125</v>
       </c>
       <c r="G86">
-        <v>-0.004529994139009459</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.06431710158040309</v>
+      </c>
+      <c r="H86">
+        <v>0.07538218441942433</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03624191771299905</v>
+        <v>-0.02964538374735438</v>
       </c>
       <c r="C87">
-        <v>-0.004740481517248234</v>
+        <v>0.003373465371048508</v>
       </c>
       <c r="D87">
-        <v>-0.0008377826384380438</v>
+        <v>-0.03183699168854874</v>
       </c>
       <c r="E87">
-        <v>0.0436438692121246</v>
+        <v>0.006159731351591705</v>
       </c>
       <c r="F87">
-        <v>-0.1042840517011082</v>
+        <v>0.005674390635422117</v>
       </c>
       <c r="G87">
-        <v>-0.04573862098296354</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.07923995400966988</v>
+      </c>
+      <c r="H87">
+        <v>0.07146423196457416</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01012321652711981</v>
+        <v>-0.03864355421677835</v>
       </c>
       <c r="C88">
-        <v>0.004893215038256255</v>
+        <v>-0.01018314515140486</v>
       </c>
       <c r="D88">
-        <v>-0.01759520547437748</v>
+        <v>-0.002880868792950778</v>
       </c>
       <c r="E88">
-        <v>-0.002489365806203491</v>
+        <v>0.009152165637193286</v>
       </c>
       <c r="F88">
-        <v>-0.01337844124904512</v>
+        <v>0.01128309220305173</v>
       </c>
       <c r="G88">
-        <v>-0.05341995879927083</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.003638943631169183</v>
+      </c>
+      <c r="H88">
+        <v>0.01216354361594862</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08625903114556487</v>
+        <v>-0.2378813773626132</v>
       </c>
       <c r="C89">
-        <v>-0.04519453965765842</v>
+        <v>0.03598486644050015</v>
       </c>
       <c r="D89">
-        <v>-0.1545058042411384</v>
+        <v>0.3537866553852753</v>
       </c>
       <c r="E89">
-        <v>-0.2612750331832553</v>
+        <v>-0.04686013473323164</v>
       </c>
       <c r="F89">
-        <v>-0.1334540389948771</v>
+        <v>-0.066689459379791</v>
       </c>
       <c r="G89">
-        <v>0.009703288887345028</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.02774244154483009</v>
+      </c>
+      <c r="H89">
+        <v>-0.01505013086880294</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07631960700089312</v>
+        <v>-0.1918273378297655</v>
       </c>
       <c r="C90">
-        <v>-0.06981839955354394</v>
+        <v>0.02917347034214365</v>
       </c>
       <c r="D90">
-        <v>-0.2047497299483563</v>
+        <v>0.3135386267121496</v>
       </c>
       <c r="E90">
-        <v>-0.2640203681489498</v>
+        <v>-0.0356783407082121</v>
       </c>
       <c r="F90">
-        <v>-0.09497461533017795</v>
+        <v>-0.08148018794928187</v>
       </c>
       <c r="G90">
-        <v>0.007631005476499758</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02829924987901187</v>
+      </c>
+      <c r="H90">
+        <v>-0.06521664029494428</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.3076150462625503</v>
+        <v>-0.2368127423128889</v>
       </c>
       <c r="C91">
-        <v>0.1410609742745817</v>
+        <v>0.1052717671229137</v>
       </c>
       <c r="D91">
-        <v>-0.04022252237885213</v>
+        <v>-0.1450368890700467</v>
       </c>
       <c r="E91">
-        <v>0.02619260409781918</v>
+        <v>0.004195478793596611</v>
       </c>
       <c r="F91">
-        <v>0.2390094337124016</v>
+        <v>0.139920537111656</v>
       </c>
       <c r="G91">
-        <v>0.03082180567212687</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1516055414383945</v>
+      </c>
+      <c r="H91">
+        <v>-0.1668330015221136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1639553082533239</v>
+        <v>-0.2358521947823218</v>
       </c>
       <c r="C92">
-        <v>-0.02390692083019117</v>
+        <v>0.09142443100779012</v>
       </c>
       <c r="D92">
-        <v>-0.287480638632397</v>
+        <v>0.2418693466676055</v>
       </c>
       <c r="E92">
-        <v>-0.3774026141378726</v>
+        <v>-0.02019480723729467</v>
       </c>
       <c r="F92">
-        <v>0.04768572160059752</v>
+        <v>-0.03668857435233562</v>
       </c>
       <c r="G92">
-        <v>-0.6053102551724999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.00670250377601116</v>
+      </c>
+      <c r="H92">
+        <v>-0.1516952657471464</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.08152603215447629</v>
+        <v>-0.215530078516424</v>
       </c>
       <c r="C93">
-        <v>-0.07460060708689947</v>
+        <v>0.04152313673521291</v>
       </c>
       <c r="D93">
-        <v>-0.2283772332684197</v>
+        <v>0.3330149706965511</v>
       </c>
       <c r="E93">
-        <v>-0.3863285989998638</v>
+        <v>-0.0597781496807927</v>
       </c>
       <c r="F93">
-        <v>-0.06291380949598756</v>
+        <v>-0.09123028120399629</v>
       </c>
       <c r="G93">
-        <v>0.08709566570073304</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03296245242721056</v>
+      </c>
+      <c r="H93">
+        <v>-0.01622785437889186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3033793857792078</v>
+        <v>-0.2646319578593886</v>
       </c>
       <c r="C94">
-        <v>0.2094567757205301</v>
+        <v>0.09763355559430249</v>
       </c>
       <c r="D94">
-        <v>-0.08522311447620882</v>
+        <v>-0.1399954521901623</v>
       </c>
       <c r="E94">
-        <v>0.04044153742730724</v>
+        <v>-0.004518011815630695</v>
       </c>
       <c r="F94">
-        <v>0.2183039778659126</v>
+        <v>0.1869180709986548</v>
       </c>
       <c r="G94">
-        <v>0.07891099428640795</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1455641477661408</v>
+      </c>
+      <c r="H94">
+        <v>-0.182972962901174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07487758522758116</v>
+        <v>-0.05597133249106195</v>
       </c>
       <c r="C95">
-        <v>0.02512610558855209</v>
+        <v>0.03026187143051524</v>
       </c>
       <c r="D95">
-        <v>0.09185024997673201</v>
+        <v>-0.08874583487840058</v>
       </c>
       <c r="E95">
-        <v>0.07425223263124311</v>
+        <v>-0.07919799740200553</v>
       </c>
       <c r="F95">
-        <v>0.008556058080189364</v>
+        <v>0.007688005308276142</v>
       </c>
       <c r="G95">
-        <v>-0.1474380707105969</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.03006166733530385</v>
+      </c>
+      <c r="H95">
+        <v>0.04017440909800149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1822447726553612</v>
+        <v>-0.1811495076605329</v>
       </c>
       <c r="C98">
-        <v>-0.002890666340285798</v>
+        <v>0.06918033808314879</v>
       </c>
       <c r="D98">
-        <v>0.02178285861243157</v>
+        <v>-0.0289340940364353</v>
       </c>
       <c r="E98">
-        <v>-0.08006632370887039</v>
+        <v>-0.04545094062458999</v>
       </c>
       <c r="F98">
-        <v>-0.1549052435555044</v>
+        <v>0.003979734059415365</v>
       </c>
       <c r="G98">
-        <v>0.314054837859957</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.07996847643315064</v>
+      </c>
+      <c r="H98">
+        <v>0.373634907878366</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.007060290340655057</v>
+        <v>-0.01485472627809201</v>
       </c>
       <c r="C101">
-        <v>0.02414134843148123</v>
+        <v>-0.0005336046204564288</v>
       </c>
       <c r="D101">
-        <v>0.02252376337525363</v>
+        <v>-0.01054650546260305</v>
       </c>
       <c r="E101">
-        <v>0.1161873166478026</v>
+        <v>0.005855370194069948</v>
       </c>
       <c r="F101">
-        <v>-0.1404706638488046</v>
+        <v>0.01733659445238979</v>
       </c>
       <c r="G101">
-        <v>-0.1804188030499924</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1076915177524703</v>
+      </c>
+      <c r="H101">
+        <v>-0.0310441910028889</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.108050122134795</v>
+        <v>-0.1063711517387304</v>
       </c>
       <c r="C102">
-        <v>0.06693808471354741</v>
+        <v>0.03527497776566035</v>
       </c>
       <c r="D102">
-        <v>-0.001728903350408275</v>
+        <v>-0.07395507333664293</v>
       </c>
       <c r="E102">
-        <v>0.04371226172578116</v>
+        <v>0.006111351413393817</v>
       </c>
       <c r="F102">
-        <v>0.1210280136041153</v>
+        <v>0.06864279680318336</v>
       </c>
       <c r="G102">
-        <v>0.0002396344369795114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.07833839787321868</v>
+      </c>
+      <c r="H102">
+        <v>-0.07131203507714004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02754275278676718</v>
+        <v>-0.01976976670315493</v>
       </c>
       <c r="C103">
-        <v>0.01444137758523076</v>
+        <v>0.007573694184881158</v>
       </c>
       <c r="D103">
-        <v>0.000500438611283398</v>
+        <v>-0.01653496588035292</v>
       </c>
       <c r="E103">
-        <v>0.01674263833656463</v>
+        <v>0.01142181289569723</v>
       </c>
       <c r="F103">
-        <v>0.009168854884314985</v>
+        <v>0.01346107958706885</v>
       </c>
       <c r="G103">
-        <v>-0.03357744911468347</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.0001602633325355119</v>
+      </c>
+      <c r="H103">
+        <v>-0.007567572722753426</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2707272440351109</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9455902281794286</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.0137306855706728</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.0366288292740292</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1442884470801048</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.01218055402422839</v>
+      </c>
+      <c r="H104">
+        <v>-0.03943887078322626</v>
       </c>
     </row>
   </sheetData>
